--- a/Application_Amazon_Framework/TestData/TestData.xlsx
+++ b/Application_Amazon_Framework/TestData/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vijayamacbook/eclipse-workspace/My_Application_Framework/TestData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vijayamacbook/git/Application_Amazon_Framework/Application_Amazon_Framework/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31A9322-7471-5742-BA2A-4605CC58C65D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16871669-7DC1-ED4B-B488-F77AA04E1DB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{809F19D6-6F46-0647-BE1F-F0951127DDBC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{809F19D6-6F46-0647-BE1F-F0951127DDBC}"/>
   </bookViews>
   <sheets>
     <sheet name="TC02" sheetId="1" r:id="rId1"/>
@@ -42,10 +42,10 @@
     <t>Password</t>
   </si>
   <si>
-    <t>raj.kankata@gmail.com</t>
+    <t>abcd@sample.com</t>
   </si>
   <si>
-    <t>Raj@2106</t>
+    <t>sample12345</t>
   </si>
 </sst>
 </file>
@@ -410,13 +410,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">

--- a/Application_Amazon_Framework/TestData/TestData.xlsx
+++ b/Application_Amazon_Framework/TestData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vijayamacbook/git/Application_Amazon_Framework/Application_Amazon_Framework/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16871669-7DC1-ED4B-B488-F77AA04E1DB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA9D321-855E-A146-867B-50682A0163FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{809F19D6-6F46-0647-BE1F-F0951127DDBC}"/>
   </bookViews>
@@ -42,10 +42,10 @@
     <t>Password</t>
   </si>
   <si>
-    <t>abcd@sample.com</t>
+    <t>sample12345</t>
   </si>
   <si>
-    <t>sample12345</t>
+    <t>abcd123@sample.com</t>
   </si>
 </sst>
 </file>
@@ -429,10 +429,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Application_Amazon_Framework/TestData/TestData.xlsx
+++ b/Application_Amazon_Framework/TestData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vijayamacbook/git/Application_Amazon_Framework/Application_Amazon_Framework/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA9D321-855E-A146-867B-50682A0163FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184446E4-E11B-564A-8623-60063E40DB0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{809F19D6-6F46-0647-BE1F-F0951127DDBC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{809F19D6-6F46-0647-BE1F-F0951127DDBC}"/>
   </bookViews>
   <sheets>
     <sheet name="TC02" sheetId="1" r:id="rId1"/>
@@ -42,10 +42,10 @@
     <t>Password</t>
   </si>
   <si>
-    <t>sample12345</t>
+    <t>abcd123@sample.com</t>
   </si>
   <si>
-    <t>abcd123@sample.com</t>
+    <t>sample123456</t>
   </si>
 </sst>
 </file>
@@ -410,7 +410,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -429,10 +429,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Application_Amazon_Framework/TestData/TestData.xlsx
+++ b/Application_Amazon_Framework/TestData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vijayamacbook/git/Application_Amazon_Framework/Application_Amazon_Framework/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184446E4-E11B-564A-8623-60063E40DB0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2825FED3-7C4D-AA4E-887D-DF8016DA097B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{809F19D6-6F46-0647-BE1F-F0951127DDBC}"/>
   </bookViews>
@@ -45,14 +45,14 @@
     <t>abcd123@sample.com</t>
   </si>
   <si>
-    <t>sample123456</t>
+    <t>sample123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -64,6 +64,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -86,15 +94,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -436,6 +446,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{05B8F2FE-3CB8-4A4A-AA05-B2E967F22055}"/>
+    <hyperlink ref="B2" r:id="rId2" display="Raj@2106" xr:uid="{9134D384-5129-BD41-BCE8-651D3C1A61A9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>